--- a/Output/AllModels_final_with_plan_and_barriers12000.xlsx
+++ b/Output/AllModels_final_with_plan_and_barriers12000.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">2.49***</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 1.52,  4.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.30***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[41.99, 57.88]</t>
+    <t xml:space="preserve">[ 1.53,  4.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.28***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[41.95, 57.78]</t>
   </si>
   <si>
     <t xml:space="preserve">123.18***</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">1.47***</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 1.23,  1.80]</t>
+    <t xml:space="preserve">[ 1.23,  1.79]</t>
   </si>
   <si>
     <t xml:space="preserve">1.04</t>
@@ -161,16 +161,16 @@
     <t xml:space="preserve">Daily individual's experienced pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.47,  1.48]</t>
+    <t xml:space="preserve">0.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.47,  1.47]</t>
   </si>
   <si>
     <t xml:space="preserve">0.89</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.78,  1.01]</t>
+    <t xml:space="preserve">[ 0.78,  1.00]</t>
   </si>
   <si>
     <t xml:space="preserve">0.95</t>
@@ -194,10 +194,10 @@
     <t xml:space="preserve">Daily partner's experienced pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,  4.99]</t>
+    <t xml:space="preserve">1.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.81,  4.82]</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.86,  1.05]</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">1.58**</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 1.17,  2.44]</t>
+    <t xml:space="preserve">[ 1.17,  2.45]</t>
   </si>
   <si>
     <t xml:space="preserve">0.98</t>
@@ -287,10 +287,10 @@
     <t xml:space="preserve">Day</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.64,  1.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,  1.16]</t>
+    <t xml:space="preserve">[ 0.63,  1.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.89,  1.16]</t>
   </si>
   <si>
     <t xml:space="preserve">[  0.88,   1.07]</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">0.87</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.30,  2.52]</t>
+    <t xml:space="preserve">[ 0.30,  2.51]</t>
   </si>
   <si>
     <t xml:space="preserve">1.06</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">1.26</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.44,  3.57]</t>
+    <t xml:space="preserve">[ 0.43,  3.60]</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.71,  1.34]</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">0.30</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.06,  1.18]</t>
+    <t xml:space="preserve">[ 0.06,  1.19]</t>
   </si>
   <si>
     <t xml:space="preserve">0.66</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.29,  1.45]</t>
+    <t xml:space="preserve">[ 0.30,  1.47]</t>
   </si>
   <si>
     <t xml:space="preserve">1.05</t>
@@ -449,16 +449,16 @@
     <t xml:space="preserve">Mean partner's experienced pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.05,  1.00]</t>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.05,  1.01]</t>
   </si>
   <si>
     <t xml:space="preserve">0.52</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.23,  1.14]</t>
+    <t xml:space="preserve">[ 0.23,  1.15]</t>
   </si>
   <si>
     <t xml:space="preserve">[  0.74,   1.47]</t>
@@ -479,16 +479,16 @@
     <t xml:space="preserve">Mean individual's experienced pushing</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.24,  5.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  2.75]</t>
+    <t xml:space="preserve">1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.23,  5.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.86,  2.77]</t>
   </si>
   <si>
     <t xml:space="preserve">[  0.71,   1.78]</t>
@@ -509,16 +509,13 @@
     <t xml:space="preserve">Mean partner's experienced pushing</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.31,  7.49]</t>
+    <t xml:space="preserve">[ 0.30,  7.30]</t>
   </si>
   <si>
     <t xml:space="preserve">1.57</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.88,  2.82]</t>
+    <t xml:space="preserve">[ 0.87,  2.81]</t>
   </si>
   <si>
     <t xml:space="preserve">[  0.83,   2.05]</t>
@@ -539,7 +536,7 @@
     <t xml:space="preserve">Mean barriers</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36**</t>
+    <t xml:space="preserve">1.35*</t>
   </si>
   <si>
     <t xml:space="preserve">[ 1.07,  1.72]</t>
@@ -578,10 +575,10 @@
     <t xml:space="preserve">sd(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.91, 1.65]</t>
+    <t xml:space="preserve">1.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.91, 1.63]</t>
   </si>
   <si>
     <t xml:space="preserve">[0.22, 0.40]</t>
@@ -608,7 +605,7 @@
     <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17</t>
+    <t xml:space="preserve">0.16</t>
   </si>
   <si>
     <t xml:space="preserve">[0.01, 0.44]</t>
@@ -641,7 +638,7 @@
     <t xml:space="preserve">0.22</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.01, 0.50]</t>
+    <t xml:space="preserve">[0.02, 0.51]</t>
   </si>
   <si>
     <t xml:space="preserve">0.06</t>
@@ -665,7 +662,7 @@
     <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.02, 1.83]</t>
+    <t xml:space="preserve">[0.02, 1.79]</t>
   </si>
   <si>
     <t xml:space="preserve">0.07</t>
@@ -680,9 +677,6 @@
     <t xml:space="preserve">[0.00, 0.27]</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.12, 2.93]</t>
   </si>
   <si>
@@ -692,7 +686,7 @@
     <t xml:space="preserve">0.77</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.04, 2.39]</t>
+    <t xml:space="preserve">[0.04, 2.34]</t>
   </si>
   <si>
     <t xml:space="preserve">[0.00, 0.19]</t>
@@ -716,6 +710,9 @@
     <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
   </si>
   <si>
+    <t xml:space="preserve">0.42</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.04, 0.94]</t>
   </si>
   <si>
@@ -735,9 +732,6 @@
   </si>
   <si>
     <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42</t>
   </si>
   <si>
     <t xml:space="preserve">[0.03, 1.15]</t>
@@ -1797,7 +1791,7 @@
       <c r="A21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1868,81 +1862,81 @@
         <v>164</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>138</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>112</v>
@@ -1954,342 +1948,342 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>75</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>75</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="J33" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>88</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>

--- a/Output/AllModels_final_with_plan_and_barriers12000.xlsx
+++ b/Output/AllModels_final_with_plan_and_barriers12000.xlsx
@@ -365,7 +365,7 @@
     <t xml:space="preserve">[0.53,    1.20]</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily weartime</t>
+    <t xml:space="preserve">Daily wear time</t>
   </si>
   <si>
     <t xml:space="preserve">1.00***</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">[0.38,    2.52]</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean weartime</t>
+    <t xml:space="preserve">Mean wear time</t>
   </si>
   <si>
     <t xml:space="preserve">1.00*</t>
